--- a/static/initialize_public/excels/yvonne_questionnaire.xlsx
+++ b/static/initialize_public/excels/yvonne_questionnaire.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken/Desktop/public/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken/NTU_AACSB_student_DB/static/initialize_public/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{35145657-7BDB-4146-8777-D8A5587AD305}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0C501916-26A7-7043-908A-BCF128F7742A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="460" windowWidth="28260" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,16 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
-  <si>
-    <t>English Name</t>
-  </si>
-  <si>
-    <t>Chinese Name</t>
-  </si>
-  <si>
-    <t>NTU ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Nationality</t>
   </si>
@@ -46,9 +37,6 @@
     <t>School</t>
   </si>
   <si>
-    <t>School name</t>
-  </si>
-  <si>
     <t>Fields</t>
   </si>
   <si>
@@ -58,19 +46,51 @@
     <t>Bachelor</t>
   </si>
   <si>
-    <t>Last employment (company)</t>
-  </si>
-  <si>
-    <t>Field of company</t>
-  </si>
-  <si>
-    <t>Job title</t>
-  </si>
-  <si>
-    <t>Total working years</t>
-  </si>
-  <si>
     <t>time</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTU_ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>freq_mobile</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>freq_email</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>freq_telephone</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>English_Name</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chinese_Name</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>School_name</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last_employment_company</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field_of_company</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job_title</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total_working_years</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -78,7 +98,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -233,6 +253,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -542,7 +571,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -669,8 +698,11 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -680,8 +712,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - 輔色1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 輔色2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 輔色3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -707,6 +742,7 @@
     <cellStyle name="計算方式" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="連結的儲存格" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="備註" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="超連結" xfId="42" builtinId="8"/>
     <cellStyle name="說明文字" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="輔色1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="輔色2" xfId="22" builtinId="33" customBuiltin="1"/>
@@ -1035,7 +1071,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -1051,82 +1087,96 @@
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="10.83203125" style="1"/>
+    <col min="24" max="26" width="10.83203125" style="2"/>
+    <col min="27" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="U1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V1" t="s">
-        <v>14</v>
-      </c>
-      <c r="W1" t="s">
-        <v>15</v>
-      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="Y2" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/static/initialize_public/excels/yvonne_questionnaire.xlsx
+++ b/static/initialize_public/excels/yvonne_questionnaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken/NTU_AACSB_student_DB/static/initialize_public/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0C501916-26A7-7043-908A-BCF128F7742A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{681F6D34-3712-7B45-8EE1-05142BE983D4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="460" windowWidth="28260" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Nationality</t>
   </si>
@@ -34,12 +34,6 @@
     <t>PhD</t>
   </si>
   <si>
-    <t>School</t>
-  </si>
-  <si>
-    <t>Fields</t>
-  </si>
-  <si>
     <t>Master</t>
   </si>
   <si>
@@ -47,58 +41,70 @@
   </si>
   <si>
     <t>time</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>English_Name</t>
+  </si>
+  <si>
+    <t>Chinese_Name</t>
   </si>
   <si>
     <t>NTU_ID</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>phd_School</t>
+  </si>
+  <si>
+    <t>phd_School_name</t>
+  </si>
+  <si>
+    <t>phd_Fields</t>
+  </si>
+  <si>
+    <t>master_School</t>
+  </si>
+  <si>
+    <t>master_School_name</t>
+  </si>
+  <si>
+    <t>master_Fields</t>
+  </si>
+  <si>
+    <t>bachelor_School</t>
+  </si>
+  <si>
+    <t>bachelor_School_name</t>
+  </si>
+  <si>
+    <t>bachelor_Fields</t>
+  </si>
+  <si>
+    <t>Last_employment_company</t>
+  </si>
+  <si>
+    <t>Field_of_company</t>
+  </si>
+  <si>
+    <t>Job_title</t>
+  </si>
+  <si>
+    <t>Total_working_years</t>
   </si>
   <si>
     <t>freq_mobile</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>freq_email</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>freq_telephone</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>English_Name</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chinese_Name</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>School_name</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Last_employment_company</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Field_of_company</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Job_title</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total_working_years</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -266,6 +272,13 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="34">
@@ -702,7 +715,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -713,6 +726,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1074,7 +1090,7 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1092,83 +1108,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="N1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="O1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="U1" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="V1" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="W1" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>12</v>
+      <c r="U1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:26">
